--- a/Resources/1996/Basic_Percentile_1996.xlsx
+++ b/Resources/1996/Basic_Percentile_1996.xlsx
@@ -1342,40 +1342,40 @@
     <t>vandelo01</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
-  </si>
-  <si>
-    <t>David Robinson*</t>
-  </si>
-  <si>
-    <t>Charles Barkley*</t>
-  </si>
-  <si>
-    <t>Karl Malone*</t>
+    <t>Hakeem Olajuwon</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
+  </si>
+  <si>
+    <t>Charles Barkley</t>
+  </si>
+  <si>
+    <t>Karl Malone</t>
   </si>
   <si>
     <t>Tom Gugliotta</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Chris Webber</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
-  </si>
-  <si>
-    <t>Michael Jordan*</t>
+    <t>Grant Hill</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
   </si>
   <si>
     <t>Shawn Kemp</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
-  </si>
-  <si>
-    <t>Clyde Drexler*</t>
+    <t>Alonzo Mourning</t>
+  </si>
+  <si>
+    <t>Clyde Drexler</t>
   </si>
   <si>
     <t>Robert Horry</t>
@@ -1387,13 +1387,13 @@
     <t>Clarence Weatherspoon</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Oliver Miller</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Vlade Divac</t>
@@ -1408,7 +1408,7 @@
     <t>Nick Anderson</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Vin Baker</t>
@@ -1441,7 +1441,7 @@
     <t>Bison Dele</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Kendall Gill</t>
@@ -1462,7 +1462,7 @@
     <t>Damon Stoudamire</t>
   </si>
   <si>
-    <t>Arvydas Sabonis*</t>
+    <t>Arvydas Sabonis</t>
   </si>
   <si>
     <t>Scott Burrell</t>
@@ -1477,7 +1477,7 @@
     <t>Eddie Jones</t>
   </si>
   <si>
-    <t>Magic Johnson*</t>
+    <t>Magic Johnson</t>
   </si>
   <si>
     <t>Mookie Blaylock</t>
@@ -1528,13 +1528,13 @@
     <t>Michael Finley</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Danny Manning</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Glen Rice</t>
@@ -1546,13 +1546,13 @@
     <t>Avery Johnson</t>
   </si>
   <si>
-    <t>Dino Radja*</t>
+    <t>Dino Radja</t>
   </si>
   <si>
     <t>Kenny Anderson</t>
   </si>
   <si>
-    <t>Mitch Richmond*</t>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Antonio McDyess</t>
@@ -1597,7 +1597,7 @@
     <t>Robert Pack</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Luc Longley</t>
@@ -1687,7 +1687,7 @@
     <t>Isaiah Rider</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Danny Ferry</t>
@@ -1768,7 +1768,7 @@
     <t>Rasheed Wallace</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Vinny Del Negro</t>
@@ -1969,7 +1969,7 @@
     <t>Will Perdue</t>
   </si>
   <si>
-    <t>Robert Parish*</t>
+    <t>Robert Parish</t>
   </si>
   <si>
     <t>Eric Montross</t>
@@ -2011,7 +2011,7 @@
     <t>Mark Bryant</t>
   </si>
   <si>
-    <t>Sarunas Marciulionis*</t>
+    <t>Sarunas Marciulionis</t>
   </si>
   <si>
     <t>Gerald Wilkins</t>
@@ -2029,7 +2029,7 @@
     <t>Yinka Dare</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Spud Webb</t>
